--- a/excel/SOLICITUD DE INSTRU EXCLUSIVO CAPRENDIZAJE.xlsx
+++ b/excel/SOLICITUD DE INSTRU EXCLUSIVO CAPRENDIZAJE.xlsx
@@ -264,7 +264,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,7 +281,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -293,7 +293,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -312,13 +312,13 @@
     <font>
       <b/>
       <sz val="20"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="20"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -364,16 +364,9 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -381,12 +374,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF00b050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -533,7 +520,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -550,7 +537,7 @@
     <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
@@ -559,8 +546,8 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -571,20 +558,23 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="7" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="5" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="8" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="5" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -592,7 +582,7 @@
     <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="10" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="5" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="8" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
@@ -601,7 +591,7 @@
     <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="11" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="5" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="9" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
@@ -619,16 +609,13 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="15" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="16" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="17" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="16" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
@@ -649,31 +636,28 @@
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="18" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="19" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="17" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="4" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="18" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -992,44 +976,44 @@
   <cols>
     <col min="1" max="1" style="12" width="29.576428571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="12" width="15.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="12" width="44.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="13" width="44.005" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="12" width="35.14785714285715" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="12" width="13.862142857142858" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="12" width="22.862142857142857" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="12" width="22.433571428571426" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="12" width="22.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="48" width="13.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="48" width="18.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="47" width="13.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="47" width="18.433571428571426" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="12" width="33.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="48" width="21.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="48" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="48" width="37.005" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="48" width="37.005" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="48" width="17.005" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="48" width="13.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="48" width="24.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="48" width="22.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="48" width="27.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="48" width="25.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="47" width="21.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="47" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="47" width="37.005" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="47" width="37.005" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="47" width="17.005" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="47" width="13.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="47" width="24.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="47" width="22.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="47" width="27.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="47" width="25.290714285714284" customWidth="1" bestFit="1"/>
     <col min="22" max="22" style="12" width="20.290714285714284" customWidth="1" bestFit="1"/>
     <col min="23" max="23" style="12" width="19.719285714285714" customWidth="1" bestFit="1"/>
     <col min="24" max="24" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="25" max="25" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="49" width="24.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="49" width="21.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="48" width="24.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="48" width="21.433571428571426" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="29.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
       <c r="K1" s="8"/>
@@ -1047,23 +1031,23 @@
       <c r="W1" s="8"/>
       <c r="X1" s="8"/>
       <c r="Y1" s="8"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="28.5">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
-      <c r="K2" s="22" t="s">
+      <c r="K2" s="23" t="s">
         <v>41</v>
       </c>
       <c r="L2" s="9"/>
@@ -1080,40 +1064,40 @@
       <c r="W2" s="8"/>
       <c r="X2" s="8"/>
       <c r="Y2" s="8"/>
-      <c r="Z2" s="23" t="s">
+      <c r="Z2" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="AA2" s="24" t="s">
+      <c r="AA2" s="25" t="s">
         <v>42</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="74.25" customFormat="1" s="1">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="27"/>
+      <c r="H3" s="28"/>
       <c r="I3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="27" t="s">
+      <c r="J3" s="28" t="s">
         <v>48</v>
       </c>
       <c r="K3" s="29" t="s">
@@ -1210,39 +1194,39 @@
         <v>25568.791666666668</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A5" s="43"/>
       <c r="B5" s="43"/>
       <c r="C5" s="43"/>
       <c r="D5" s="43"/>
       <c r="E5" s="43"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="44"/>
-      <c r="S5" s="44"/>
-      <c r="T5" s="44"/>
-      <c r="U5" s="44"/>
-      <c r="V5" s="44"/>
-      <c r="W5" s="44"/>
-      <c r="X5" s="44"/>
-      <c r="Y5" s="44"/>
-      <c r="Z5" s="45"/>
-      <c r="AA5" s="46"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="44"/>
+      <c r="AA5" s="45"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
+      <c r="C6" s="46"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
@@ -1265,13 +1249,13 @@
       <c r="W6" s="8"/>
       <c r="X6" s="8"/>
       <c r="Y6" s="8"/>
-      <c r="Z6" s="17"/>
-      <c r="AA6" s="18"/>
+      <c r="Z6" s="18"/>
+      <c r="AA6" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
+      <c r="C7" s="46"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
@@ -1294,13 +1278,13 @@
       <c r="W7" s="8"/>
       <c r="X7" s="8"/>
       <c r="Y7" s="8"/>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="18"/>
+      <c r="Z7" s="18"/>
+      <c r="AA7" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
+      <c r="C8" s="46"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -1323,13 +1307,13 @@
       <c r="W8" s="8"/>
       <c r="X8" s="8"/>
       <c r="Y8" s="8"/>
-      <c r="Z8" s="17"/>
-      <c r="AA8" s="18"/>
+      <c r="Z8" s="18"/>
+      <c r="AA8" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
+      <c r="C9" s="46"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
@@ -1352,13 +1336,13 @@
       <c r="W9" s="8"/>
       <c r="X9" s="8"/>
       <c r="Y9" s="8"/>
-      <c r="Z9" s="17"/>
-      <c r="AA9" s="18"/>
+      <c r="Z9" s="18"/>
+      <c r="AA9" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
+      <c r="C10" s="46"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
@@ -1381,13 +1365,13 @@
       <c r="W10" s="8"/>
       <c r="X10" s="8"/>
       <c r="Y10" s="8"/>
-      <c r="Z10" s="17"/>
-      <c r="AA10" s="17"/>
+      <c r="Z10" s="18"/>
+      <c r="AA10" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
+      <c r="C11" s="46"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
@@ -1410,13 +1394,13 @@
       <c r="W11" s="8"/>
       <c r="X11" s="8"/>
       <c r="Y11" s="8"/>
-      <c r="Z11" s="17"/>
-      <c r="AA11" s="17"/>
+      <c r="Z11" s="18"/>
+      <c r="AA11" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
+      <c r="C12" s="46"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
@@ -1439,13 +1423,13 @@
       <c r="W12" s="8"/>
       <c r="X12" s="8"/>
       <c r="Y12" s="8"/>
-      <c r="Z12" s="17"/>
-      <c r="AA12" s="17"/>
+      <c r="Z12" s="18"/>
+      <c r="AA12" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
-      <c r="C13" s="47"/>
+      <c r="C13" s="11"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
@@ -1468,8 +1452,8 @@
       <c r="W13" s="8"/>
       <c r="X13" s="8"/>
       <c r="Y13" s="8"/>
-      <c r="Z13" s="17"/>
-      <c r="AA13" s="17"/>
+      <c r="Z13" s="18"/>
+      <c r="AA13" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1488,7 +1472,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="12" width="22.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="12" width="41.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="13" width="41.43357142857143" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="12" width="28.290714285714284" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="12" width="25.862142857142857" customWidth="1" bestFit="1"/>
   </cols>
